--- a/public/文件上传模板.xlsx
+++ b/public/文件上传模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0">
+    <comment ref="W2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,15 +51,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="66">
   <si>
     <t>入库Excel</t>
   </si>
   <si>
     <t>资产编号</t>
-  </si>
-  <si>
-    <t>资产条码</t>
   </si>
   <si>
     <t>资产名称</t>
@@ -1278,26 +1275,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="23.9333333333333" customWidth="1"/>
-    <col min="4" max="4" width="10.8666666666667" customWidth="1"/>
-    <col min="18" max="18" width="11.4666666666667" customWidth="1"/>
-    <col min="24" max="24" width="17.5" customWidth="1"/>
-    <col min="25" max="25" width="17.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="23.9333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.8666666666667" customWidth="1"/>
+    <col min="17" max="17" width="11.4666666666667" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="17.625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:35">
+    <row r="1" ht="24" customHeight="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1334,9 +1330,8 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
     </row>
-    <row r="2" ht="17.25" spans="1:35">
+    <row r="2" ht="17.25" spans="1:34">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1346,10 +1341,10 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
@@ -1427,7 +1422,7 @@
       <c r="AD2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AF2" s="1" t="s">
@@ -1438,28 +1433,25 @@
       </c>
       <c r="AH2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1 Y1 X2 Y2 X3:X1048576 Y3:Y1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 X1 W2 X2 W3:W1048576 X3:X1048576">
       <formula1>32874</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1 AC2 AC3:AC1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB1 AB2 AB3:AB1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
       <formula1>0</formula1>
       <formula2>9999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA$1:AA$1048576 AB$1:AB$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576 AA$1:AA$1048576">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
@@ -1490,85 +1482,85 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1579,85 +1571,85 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -1668,85 +1660,85 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>40</v>
-      </c>
       <c r="AB3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1757,85 +1749,85 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>40</v>
-      </c>
       <c r="AB4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1846,85 +1838,85 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>40</v>
-      </c>
       <c r="AB5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1935,85 +1927,85 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>40</v>
-      </c>
       <c r="AB6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -2024,85 +2016,85 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" t="s">
-        <v>23</v>
-      </c>
-      <c r="X7" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>40</v>
-      </c>
       <c r="AB7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -2113,85 +2105,85 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" t="s">
-        <v>22</v>
-      </c>
-      <c r="W8" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>40</v>
-      </c>
       <c r="AB8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -2202,85 +2194,85 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" t="s">
-        <v>23</v>
-      </c>
-      <c r="X9" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>40</v>
-      </c>
       <c r="AB9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2291,85 +2283,85 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>40</v>
-      </c>
       <c r="AB10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -2380,85 +2372,85 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>40</v>
-      </c>
       <c r="AB11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2469,85 +2461,85 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>40</v>
-      </c>
       <c r="AB12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -2558,85 +2550,85 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" t="s">
-        <v>22</v>
-      </c>
-      <c r="W13" t="s">
-        <v>23</v>
-      </c>
-      <c r="X13" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>40</v>
-      </c>
       <c r="AB13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2647,85 +2639,85 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X14" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" t="s">
-        <v>22</v>
-      </c>
-      <c r="W14" t="s">
-        <v>23</v>
-      </c>
-      <c r="X14" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>40</v>
-      </c>
       <c r="AB14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2736,85 +2728,85 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" t="s">
-        <v>23</v>
-      </c>
-      <c r="X15" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>40</v>
-      </c>
       <c r="AB15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2825,85 +2817,85 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W16" t="s">
-        <v>23</v>
-      </c>
-      <c r="X16" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>40</v>
-      </c>
       <c r="AB16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2914,85 +2906,85 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>40</v>
-      </c>
       <c r="AB17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -3003,85 +2995,85 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" t="s">
-        <v>22</v>
-      </c>
-      <c r="W18" t="s">
-        <v>23</v>
-      </c>
-      <c r="X18" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>40</v>
-      </c>
       <c r="AB18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3092,85 +3084,85 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19" t="s">
-        <v>23</v>
-      </c>
-      <c r="X19" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>40</v>
-      </c>
       <c r="AB19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -3181,85 +3173,85 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20" t="s">
-        <v>23</v>
-      </c>
-      <c r="X20" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>40</v>
-      </c>
       <c r="AB20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3270,85 +3262,85 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" t="s">
-        <v>22</v>
-      </c>
-      <c r="W21" t="s">
-        <v>23</v>
-      </c>
-      <c r="X21" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>40</v>
-      </c>
       <c r="AB21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3359,85 +3351,85 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" t="s">
         <v>39</v>
       </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W22" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>40</v>
-      </c>
       <c r="AB22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3448,85 +3440,85 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>24</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" t="s">
         <v>39</v>
       </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" t="s">
-        <v>22</v>
-      </c>
-      <c r="W23" t="s">
-        <v>23</v>
-      </c>
-      <c r="X23" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>40</v>
-      </c>
       <c r="AB23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3537,85 +3529,85 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA24" t="s">
         <v>39</v>
       </c>
-      <c r="H24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" t="s">
-        <v>19</v>
-      </c>
-      <c r="T24" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V24" t="s">
-        <v>22</v>
-      </c>
-      <c r="W24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X24" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>40</v>
-      </c>
       <c r="AB24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3626,85 +3618,85 @@
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X25" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" t="s">
         <v>39</v>
       </c>
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" t="s">
-        <v>19</v>
-      </c>
-      <c r="T25" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" t="s">
-        <v>22</v>
-      </c>
-      <c r="W25" t="s">
-        <v>23</v>
-      </c>
-      <c r="X25" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>40</v>
-      </c>
       <c r="AB25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3715,85 +3707,85 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="s">
         <v>39</v>
       </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" t="s">
-        <v>15</v>
-      </c>
-      <c r="P26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" t="s">
-        <v>22</v>
-      </c>
-      <c r="W26" t="s">
-        <v>23</v>
-      </c>
-      <c r="X26" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>40</v>
-      </c>
       <c r="AB26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3804,85 +3796,85 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>44743</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA27" t="s">
         <v>39</v>
       </c>
-      <c r="H27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" t="s">
-        <v>19</v>
-      </c>
-      <c r="T27" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" t="s">
-        <v>22</v>
-      </c>
-      <c r="W27" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>44743</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>40</v>
-      </c>
       <c r="AB27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/文件上传模板.xlsx
+++ b/public/文件上传模板.xlsx
@@ -149,7 +149,7 @@
     <t>测量范围</t>
   </si>
   <si>
-    <t>适用范围</t>
+    <t>使用范围</t>
   </si>
   <si>
     <t>采样频率</t>

--- a/public/文件上传模板.xlsx
+++ b/public/文件上传模板.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>财务编号</t>
   </si>
   <si>
-    <t>购入价格（不含税）</t>
+    <t>资产原值</t>
   </si>
   <si>
     <t>购入价格（含税）</t>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -301,34 +301,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -342,14 +314,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +353,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,7 +418,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,55 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +519,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,7 +543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +627,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,21 +650,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -697,6 +682,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,148 +755,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,52 +925,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1274,11 +1274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1321,7 +1321,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="Z1"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
@@ -1439,7 +1439,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AH1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1 X1 W2 X2 W3:W1048576 X3:X1048576">
       <formula1>32874</formula1>
     </dataValidation>
@@ -1451,7 +1451,11 @@
       <formula1>0</formula1>
       <formula2>9999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576 AA$1:AA$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z$1:Z$1048576">
+      <formula1>0</formula1>
+      <formula2>999999999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA$1:AA$1048576">
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
@@ -1465,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3900,7 +3904,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
